--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28315"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/G-Drive/cx/mygit/wangyunpiao/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20180322" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="删除的" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -534,7 +542,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -543,21 +551,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -565,7 +573,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -574,7 +582,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -670,16 +678,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1007,11 +1020,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.5" style="9" bestFit="1" customWidth="1"/>
@@ -1022,7 +1035,7 @@
     <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1062,7 +1075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1076,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1093,7 +1106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1127,27 +1140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
@@ -1164,7 +1157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1184,7 +1177,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>48</v>
       </c>
@@ -1201,7 +1194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1218,7 +1211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1232,7 +1225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1249,7 +1242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>66</v>
       </c>
@@ -1266,7 +1259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
@@ -1283,7 +1276,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -1303,7 +1296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>79</v>
       </c>
@@ -1323,7 +1316,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
@@ -1343,7 +1336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -1357,27 +1350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="12" customFormat="1" ht="30">
+    <row r="21" spans="1:6" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>99</v>
       </c>
@@ -1392,7 +1365,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="12" customFormat="1" ht="30">
+    <row r="22" spans="1:6" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
@@ -1409,7 +1382,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>104</v>
       </c>
@@ -1423,7 +1396,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>109</v>
       </c>
@@ -1437,7 +1410,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>112</v>
       </c>
@@ -1457,7 +1430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30">
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>117</v>
       </c>
@@ -1471,7 +1444,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>120</v>
       </c>
@@ -1485,7 +1458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>124</v>
       </c>
@@ -1502,7 +1475,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>128</v>
       </c>
@@ -1519,7 +1492,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>132</v>
       </c>
@@ -1533,7 +1506,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>136</v>
       </c>
@@ -1547,7 +1520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>141</v>
       </c>
@@ -1564,7 +1537,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>104</v>
       </c>
@@ -1578,7 +1551,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>145</v>
       </c>
@@ -1595,7 +1568,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>154</v>
       </c>
@@ -1615,7 +1588,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>159</v>
       </c>
@@ -1636,28 +1609,61 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A5:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="20180322" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
   <si>
     <t>收件人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -504,6 +504,10 @@
   </si>
   <si>
     <t>370687198904220428</t>
+  </si>
+  <si>
+    <t>330322198712034821</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -554,24 +558,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -613,15 +605,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -633,9 +625,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -644,9 +633,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -994,7 +980,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B31" activeCellId="1" sqref="B23 B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1008,23 +994,23 @@
     <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1122,7 +1108,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -1156,7 +1142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -1306,11 +1292,14 @@
       <c r="C17" s="6" t="s">
         <v>119</v>
       </c>
+      <c r="D17" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>136</v>
       </c>
@@ -1330,7 +1319,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="30">
+    <row r="19" spans="1:6" s="1" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1343,7 +1332,7 @@
       <c r="D19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="4"/>
@@ -1385,7 +1374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="30">
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1406,7 +1395,7 @@
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1419,7 +1408,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
@@ -1548,7 +1537,7 @@
       <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="6" t="s">

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="171">
   <si>
     <t>收件人</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -507,6 +507,57 @@
   </si>
   <si>
     <t>330322198712034821</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西省西安市户县森工医院</t>
+  </si>
+  <si>
+    <t>于金琪18629083985</t>
+  </si>
+  <si>
+    <t>张海宁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18092940668
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>610321198306071521</t>
+  </si>
+  <si>
+    <t>contigo水杯女宝宝*2组，直邮</t>
+  </si>
+  <si>
+    <t>内蒙古巴彦淖尔市临河区滨河街建祥园</t>
+  </si>
+  <si>
+    <t>牛智洁</t>
+  </si>
+  <si>
+    <t>18547870715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152801199507291229 </t>
+  </si>
+  <si>
+    <t>女宝</t>
+  </si>
+  <si>
+    <t>内蒙古巴彦淖尔市临河区金莎丽苑A14-1-601</t>
+  </si>
+  <si>
+    <t>张静</t>
+  </si>
+  <si>
+    <t>15248878068</t>
+  </si>
+  <si>
+    <t>152801199005151840</t>
+  </si>
+  <si>
+    <t>【女色】女宝两套</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +647,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -604,8 +655,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -634,15 +697,31 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="19">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -976,11 +1055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" activeCellId="1" sqref="B23 B31"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -994,7 +1073,7 @@
     <col min="7" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
+    <row r="1" spans="1:7" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>127</v>
       </c>
@@ -1030,8 +1109,11 @@
       <c r="E2" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>31</v>
       </c>
@@ -1050,8 +1132,11 @@
       <c r="F3" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
@@ -1067,8 +1152,11 @@
       <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>73</v>
       </c>
@@ -1087,8 +1175,11 @@
       <c r="F5" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
@@ -1107,8 +1198,11 @@
       <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
@@ -1124,8 +1218,11 @@
       <c r="E7" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>60</v>
       </c>
@@ -1141,8 +1238,11 @@
       <c r="E8" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
+      <c r="G8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="1" t="s">
         <v>86</v>
       </c>
@@ -1159,8 +1259,11 @@
         <v>88</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1179,8 +1282,11 @@
       <c r="F10" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>110</v>
       </c>
@@ -1196,8 +1302,11 @@
       <c r="E11" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>114</v>
       </c>
@@ -1213,8 +1322,11 @@
       <c r="E12" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>141</v>
       </c>
@@ -1230,8 +1342,11 @@
       <c r="E13" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1247,8 +1362,11 @@
       <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -1264,8 +1382,11 @@
       <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>123</v>
       </c>
@@ -1281,8 +1402,11 @@
       <c r="F16" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>118</v>
       </c>
@@ -1298,8 +1422,11 @@
       <c r="E17" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>136</v>
       </c>
@@ -1318,8 +1445,11 @@
       <c r="F18" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
+      <c r="G18" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1336,8 +1466,11 @@
         <v>57</v>
       </c>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>106</v>
       </c>
@@ -1353,8 +1486,11 @@
       <c r="E20" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -1373,8 +1509,11 @@
       <c r="F21" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1529,11 @@
       <c r="E22" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -1407,8 +1549,11 @@
       <c r="E23" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30">
+      <c r="G23" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30">
       <c r="A24" s="4" t="s">
         <v>99</v>
       </c>
@@ -1424,8 +1569,12 @@
       <c r="E24" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="4">
+        <v>23</v>
+      </c>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>102</v>
       </c>
@@ -1441,8 +1590,11 @@
       <c r="E25" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1458,8 +1610,11 @@
       <c r="E26" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>90</v>
       </c>
@@ -1475,8 +1630,11 @@
       <c r="E27" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
@@ -1495,8 +1653,11 @@
       <c r="F28" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>94</v>
       </c>
@@ -1515,8 +1676,11 @@
       <c r="F29" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>49</v>
       </c>
@@ -1532,8 +1696,11 @@
       <c r="E30" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
@@ -1548,6 +1715,72 @@
       </c>
       <c r="E31" s="4" t="s">
         <v>64</v>
+      </c>
+      <c r="G31" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30">
+      <c r="A32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="4">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1567,14 +1800,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="11"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:B8">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
